--- a/refac006.xlsx
+++ b/refac006.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -11415,6 +11415,5681 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="118833920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle7!$A$2:$A$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3261</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3521</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3541</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3581</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3601</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3621</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3641</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3661</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3681</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3721</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3861</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3921</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4021</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4061</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4121</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4161</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4221</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4261</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4361</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4381</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4401</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4421</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4441</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4461</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4481</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4541</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4561</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4601</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4681</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4741</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4801</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4821</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4841</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4901</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4921</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4941</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5021</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5061</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5081</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5101</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5121</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5141</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5181</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5221</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5241</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5261</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5281</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5321</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5361</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5381</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5401</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5421</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5441</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5481</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5501</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5521</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5541</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5561</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5581</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5621</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5661</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5701</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5741</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5761</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5781</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5801</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5841</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5861</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5881</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5901</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5941</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5961</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5981</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle7!$B$2:$B$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>-7449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5434</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10550</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10727</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10730</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11710</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11710</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12570</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14192</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16990</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37131</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37733</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46851</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49966</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49966</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51660</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54131</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58578</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59435</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65450</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66460</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67620</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71430</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>73600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>73600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76170</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>76170</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76676</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78492</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78492</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79465</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79605</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80270</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>80460</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82050</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83540</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>83540</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>83820</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86275</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>86275</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>86600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>88178</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>88178</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>88805</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>88805</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89065</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>89885</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89885</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90120</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90120</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>90210</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93160</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>93160</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>94980</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>94980</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94980</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95310</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96750</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96990</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>97335</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97475</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97575</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97680</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97740</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>97740</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>97785</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>97805</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>97805</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>97810</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>97820</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97820</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>97830</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97890</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>97920</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>97920</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>97930</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>97940</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>97950</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>97960</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>98050</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>98050</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>98050</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>98060</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>98070</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>98070</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>98070</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>98080</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>98090</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle7!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> last</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle7!$A$2:$A$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3261</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3521</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3541</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3581</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3601</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3621</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3641</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3661</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3681</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3721</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3861</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3921</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4021</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4061</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4121</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4161</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4221</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4261</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4361</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4381</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4401</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4421</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4441</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4461</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4481</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4541</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4561</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4601</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4681</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4741</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4801</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4821</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4841</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4901</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4921</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4941</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5021</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5061</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5081</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5101</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5121</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5141</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5181</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5221</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5241</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5261</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5281</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5321</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5361</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5381</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5401</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5421</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5441</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5481</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5501</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5521</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5541</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5561</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5581</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5621</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5661</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5701</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5741</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5761</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5781</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5801</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5841</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5861</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5881</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5901</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5941</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5961</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5981</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle7!$C$2:$C$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>-32344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5810</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10485</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11590</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12110</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12760</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14365</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16092</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17585</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19455</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22833</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30778</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39605</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43098</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47693</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49613</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51660</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53849</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56186</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58082</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59795</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62251</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>64530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66450</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>68330</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>70225</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>72085</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>73304</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>74630</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>75720</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>76430</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>77058</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>77720</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>78505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>79220</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79870</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>80475</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>80955</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81350</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82500</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>84655</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>85690</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86235</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>86670</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>86985</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87253</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87505</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87894</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>88265</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>88535</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88790</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89065</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>89258</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90150</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91426</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92825</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94110</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94760</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>95512</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>96480</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96850</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97070</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97255</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97495</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97575</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>97635</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>97675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>97700</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>97740</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>97780</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>97790</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97800</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>97810</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>97820</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>97820</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97820</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97840</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>97850</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>97870</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>97920</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>97930</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>97930</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>97950</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>97960</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>97970</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>98050</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>98050</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>98060</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>98070</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>98070</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>98080</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>98090</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>98090</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113546752"/>
+        <c:axId val="113545216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113546752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113545216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="113545216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113546752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle7!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vari1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle7!$A$2:$A$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3261</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3521</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3541</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3581</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3601</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3621</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3641</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3661</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3681</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3721</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3861</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3921</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4021</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4061</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4121</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4161</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4221</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4261</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4361</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4381</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4401</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4421</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4441</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4461</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4481</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4541</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4561</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4601</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4681</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4741</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4801</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4821</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4841</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4901</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4921</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4941</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5021</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5061</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5081</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5101</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5121</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5141</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5181</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5221</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5241</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5261</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5281</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5321</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5361</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5381</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5401</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5421</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5441</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5481</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5501</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5521</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5541</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5561</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5581</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5621</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5661</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5701</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5741</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5761</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5781</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5801</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5841</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5861</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5881</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5901</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5941</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5961</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5981</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle7!$E$2:$E$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>105.602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.162000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.403999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.909000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.397999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.384</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.596000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.433999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>68.736999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.183999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.81</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.081000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59.061</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.343000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.808</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.98</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49.22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.31</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44.343000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45.92</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.262999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43.85</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.57</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42.38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.51</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41.384</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.616</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35.89</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.65</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>31.181999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.56</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34.17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30.29</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28.202000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.36</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>30.41</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27.94</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.373999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.43</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>25.939</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25.87</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>22.29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>22.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19.72</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20.449000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>19.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20.39</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20.53</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20.626000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>21.081</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>20.384</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20.59</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20.193999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>20.66</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>20.303000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>20.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>20.69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>20.312999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19.908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>19.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>17.63</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>17.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18.29</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>19.343</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>17.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17.14</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>15.71</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>15.89</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>16.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15.776</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>16.39</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>15.727</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16.61</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>10.93</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.3740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8.8989999999999991</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8.6159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.1820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>8.7880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>8.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>9.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>8.8379999999999992</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>8.5559999999999992</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>8.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.2219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8.77</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.2829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9.3840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9.49</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>9.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8.8989999999999991</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8.8989999999999991</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9.6159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9.5250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>8.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9.3670000000000009</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9.1110000000000007</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9.8379999999999992</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="119117696"/>
+        <c:axId val="119116160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119117696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119116160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119116160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119117696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -34527,6 +40202,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -60481,7 +66221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -65612,10 +71352,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70737,12 +76477,8 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>5629967</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>